--- a/data/s3/Annelinn/archetypes/pop_archetypes_transport.xlsx
+++ b/data/s3/Annelinn/archetypes/pop_archetypes_transport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\s3\Annelinn\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97D4AD3-FF3E-407D-B2B0-327B93A0A309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8288AA90-51C6-42FC-97CF-DE31725D902A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1284" yWindow="912" windowWidth="10320" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="43">
   <si>
     <t>name</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>price_sigma</t>
+  </si>
+  <si>
+    <t>CS_electric</t>
   </si>
 </sst>
 </file>
@@ -580,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1339,11 +1342,84 @@
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="6"/>
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J10">
+        <v>0.1</v>
+      </c>
+      <c r="K10">
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0.63349999999999995</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0.20349999999999999</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>9999</v>
+      </c>
+      <c r="R10" s="5">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0.31674999999999998</v>
+      </c>
+      <c r="T10">
+        <v>0.10174999999999999</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>80</v>
+      </c>
+      <c r="X10">
+        <v>10</v>
+      </c>
+      <c r="Y10">
+        <v>60</v>
+      </c>
+      <c r="Z10">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A7:J9">

--- a/data/s3/Annelinn/archetypes/pop_archetypes_transport.xlsx
+++ b/data/s3/Annelinn/archetypes/pop_archetypes_transport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asier.divasson\Documents\GitHub\CogniCity\data\s3\Annelinn\archetypes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8288AA90-51C6-42FC-97CF-DE31725D902A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE09945-F334-4CC4-A062-F2BEA60459E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="2136" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -583,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4:O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -887,7 +887,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="12">
-        <v>0.63349999999999995</v>
+        <v>0.53080000000000005</v>
       </c>
       <c r="P4" s="12">
         <v>0.20349999999999999</v>
@@ -900,7 +900,7 @@
       </c>
       <c r="S4" s="9">
         <f>O4*0.5</f>
-        <v>0.31674999999999998</v>
+        <v>0.26540000000000002</v>
       </c>
       <c r="T4" s="9">
         <f>P4*0.5</f>
@@ -969,7 +969,7 @@
         <v>3.9049999999999998</v>
       </c>
       <c r="O5" s="12">
-        <v>1.6359999999999999</v>
+        <v>1.3640000000000001</v>
       </c>
       <c r="P5" s="12">
         <v>0.628</v>
